--- a/360cert预警通报统计.xlsx
+++ b/360cert预警通报统计.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,56 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>通报链接</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>简述</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>重点漏洞或漏洞详情</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>修复建议</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows TCP/IP 远程代码执行漏洞通告</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://cert.360.cn/warning/detail?id=8413643955830478ef021659fbf55876</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021年02月10日，360CERT监测发现微软发布了Windows TCP/IP 远程代码执行漏洞的风险通告，该漏洞编号为CVE-2021-24074，漏洞等级：严重，漏洞评分：9.8。WIndows TCP/IP 协议中存在远程代码执行漏洞，攻击者通过精心构造的IP数据包，可直接在远程目标主机上执行任意代码。对此，360CERT建议广大用户及时将windows升级到最新版本。与此同时，请做好资产自查以及预防工作，以免遭受黑客攻击。</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CVE-2021-24074: Windows TCP/IP 远程代码执行漏洞WIndows TCP/IP 协议中存在远程代码执行漏洞，攻击者通过精心构造的IP数据包，可直接在远程目标主机上执行任意代码。该漏洞位于IPv4源路由中，默认情况下，系统会禁用此功能并拒绝相关请求。广大用户还可在防火墙及其它外围设备处设置源路由阻止策略。</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>通用修补建议通过如下链接寻找符合操作系统版本的漏洞补丁，并进行补丁下载安装。Windows TCP/IP Remote Code Execution Vulnerability临时修补建议1.通过如下命令，将sourceroutingbehavior设置为“ drop”netsh int ipv4 set global sourceroutingbehavior=drop
+注意，在Windows默认情况下，IPv4源路由被认为是不安全的，系统将处理该来源请求并返回拒绝该请求的ICMP消息。但是，该解决方法将导致系统完全丢弃这些请求，而不进行任何处理。若想撤销该变化，回到默认设置，请执行以下还原命令：netsh int ipv4 set global sourceroutingbehavior=dontforward
+2. 配置防火墙或负载均衡以禁止源路由请求</t>
         </is>
       </c>
     </row>

--- a/360cert预警通报统计.xlsx
+++ b/360cert预警通报统计.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,134 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows TCP/IP 远程代码执行漏洞通告</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://cert.360.cn/warning/detail?id=8413643955830478ef021659fbf55876</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021年02月10日，360CERT监测发现微软发布了Windows TCP/IP 远程代码执行漏洞的风险通告，该漏洞编号为CVE-2021-24074，漏洞等级：严重，漏洞评分：9.8。WIndows TCP/IP 协议中存在远程代码执行漏洞，攻击者通过精心构造的IP数据包，可直接在远程目标主机上执行任意代码。对此，360CERT建议广大用户及时将windows升级到最新版本。与此同时，请做好资产自查以及预防工作，以免遭受黑客攻击。</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CVE-2021-24074: Windows TCP/IP 远程代码执行漏洞WIndows TCP/IP 协议中存在远程代码执行漏洞，攻击者通过精心构造的IP数据包，可直接在远程目标主机上执行任意代码。该漏洞位于IPv4源路由中，默认情况下，系统会禁用此功能并拒绝相关请求。广大用户还可在防火墙及其它外围设备处设置源路由阻止策略。</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>通用修补建议通过如下链接寻找符合操作系统版本的漏洞补丁，并进行补丁下载安装。Windows TCP/IP Remote Code Execution Vulnerability临时修补建议1.通过如下命令，将sourceroutingbehavior设置为“ drop”netsh int ipv4 set global sourceroutingbehavior=drop
+注意，在Windows默认情况下，IPv4源路由被认为是不安全的，系统将处理该来源请求并返回拒绝该请求的ICMP消息。但是，该解决方法将导致系统完全丢弃这些请求，而不进行任何处理。若想撤销该变化，回到默认设置，请执行以下还原命令：netsh int ipv4 set global sourceroutingbehavior=dontforward
+2. 配置防火墙或负载均衡以禁止源路由请求</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>VMware多个高危漏洞通告</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://cert.360.cn/warning/detail?id=ed5c81bdac7ed43ef70368590fdc8a2a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021年02月24日，360CERT监测发现VMware发布了Vcenter Server、ESXI的风险通告，事件等级：严重，事件评分：9.8。VMware更新了ESXI和vSphere Client(HTML5)中的两个高危漏洞，具有网络端口访问权限的恶意攻击者可以通过漏洞执行任意代码。对此，360CERT建议广大用户及时将Vcenter Server与ESXI产品升级到最新版本。与此同时，请做好资产自查以及预防工作，以免遭受黑客攻击。</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CVE-2021-21972: 代码执行漏洞具有443端口访问权限的恶意攻击者可以通过向vCenter Server发送精心构造的请求，最终造成远程任意代码执行。CVE-2021-21974: 堆溢出漏洞与ESXI处于同一网段且可以访问427端口的恶意攻击者可以构造恶意请求包触发OpenSLP服务中的堆溢出漏洞，最终造成远程代码执行。</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>通用修补建议CVE-2021-21972：- vCenter Server7.0版本升级到7.0.U1c- vCenter Server6.7版本升级到6.7.U3l- vCenter Server6.5版本升级到6.5 U3nCVE-2021-21974：- ESXi7.0版本升级到ESXi70U1c-17325551- ESXi6.7版本升级到ESXi670-202102401-SG- ESXi6.5版本升级到ESXi650-202102101-SG临时修补建议CVE-2021-219721. SSH远连到vCSA（或远程桌面连接到Windows VC）2. 备份以下文件：- Linux系文件路径为：/etc/vmware/vsphere-ui/compatibility-matrix.xml (vCSA)- Windows文件路径为：C:\ProgramData\VMware\vCenterServer\cfg\vsphere-ui (Windows VC)3. 使用文本编辑器将文件内容修改为：4. 使用vmon-cli -r vsphere-ui命令重启vsphere-ui服务
+5. 访问https://&lt;VC-IP-or-FQDN&gt;/ui/vropspluginui/rest/services/checkmobregister，显示404错误6. 在vSphere Client的Solutions-&gt;Client Plugins中VMWare vROPS插件显示为incompatibleCVE-2021-219741. 使用/etc/init.d/slpd stop命令在ESXI主机上停止SLP服务（仅当不使用SLP服务时，才可以停止该服务。可以使用esxcli system slp stats get命令查看服务守护程序运行状态）
+2. 使用esxcli network firewall ruleset set -r CIMSLP -e 0命令禁用SLP服务
+3. 使用chkconfig slpd off命令保证此更改在重启后持续存在
+4. 利用chkconfig --list | grep slpd命令检查是否在重启后更改成功，若回显为slpd off则证明成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-02 补丁日: 微软多个高危漏洞通告</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://cert.360.cn/warning/detail?id=0287eded36a597256019bb129a6db98d</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021年02月10日，360CERT监测发现微软发布了2月安全更新的风险通告，事件等级：严重，事件评分：9.8。此次安全更新发布了56个漏洞的补丁，主要涵盖了以下组件: Windows操作系统、Edge浏览器、Office办公套件、Skype、反病毒引擎、.NET。其中包括11个严重漏洞，43个高危漏洞。对此，360CERT建议广大用户好资产自查以及预防工作，以免遭受黑客攻击。</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CVE：CVE-2021-1732
+组件：Windows Win32k
+漏洞类型：权限提升
+影响：本地低权限用户获得计算机控制权
+简述：该类漏洞容易与代码执行漏洞形成组合利用实现远程直接获取目标计算机的高级别控制权限
+CVE：CVE-2021-24078
+组件：Windows DNS Server
+漏洞类型：远程代码执行
+影响：远程攻击者可以在目标系统上执行任意代码并取得和 DNS Server同级别的控制权限
+简述：开启Windows DNS Server 服务的主机才受到漏洞影响，攻击者可以不通过授权直接发起攻击，该漏洞具有在
+Windows DNS Server间蠕虫传播的特性
+CVE：CVE-2021-24074
+组件：Windows TCP/IP
+漏洞类型：远程代码执行
+影响：远程攻击者获得目标主机的控制权限
+简述：任意对外部开放端口的Windows主机受到该漏洞影响，攻击者通过特制的流量包可获得目标主机的控制权限
+CVE：CVE-2021-26701
+组件：.NET Core
+漏洞类型：远程代码执行
+影响：远程攻击者获得目标主机控制权限
+简述：该漏洞的细节信息已经公开，建议用户以及开发者谨慎打开和使用 .NET 相关组件和应用程序
+CVE：CVE-2021-1727
+组件：Windows Installer
+漏洞类型：权限提升；代码执行
+影响：远程攻击者获得目标主机控制权限
+简述：针对近期的Installer 微软官方进行了修复，漏洞利用和信息已经公开，建议用户针对该漏洞进行修复
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>通用修补建议360CERT建议通过安装360安全卫士进行一键更新。应及时进行Microsoft Windows版本更新并且保持Windows自动更新开启。Windows server / Windows 检测并开启Windows自动更新流程如下- 点击开始菜单，在弹出的菜单中选择“控制面板”进行下一步。- 点击控制面板页面中的“系统和安全”，进入设置。- 在弹出的新的界面中选择“windows update”中的“启用或禁用自动更新”。- 然后进入设置窗口，展开下拉菜单项，选择其中的自动安装更新（推荐）。临时修补建议通过如下链接自行寻找符合操作系统版本的漏洞补丁，并进行补丁下载安装。2021 年 02 月安全更新 - 发行说明 - 安全更新程序指南 - Microsoft</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
